--- a/Gant.xlsx
+++ b/Gant.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,14 +9,69 @@
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Viikot</t>
+  </si>
+  <si>
+    <t>37 - 38</t>
+  </si>
+  <si>
+    <t>38 - 39</t>
+  </si>
+  <si>
+    <t>39 - 40</t>
+  </si>
+  <si>
+    <t>40 - 41</t>
+  </si>
+  <si>
+    <t>41 - 42</t>
+  </si>
+  <si>
+    <t>42 - 43</t>
+  </si>
+  <si>
+    <t>43 - 44</t>
+  </si>
+  <si>
+    <t>44 - 45</t>
+  </si>
+  <si>
+    <t>45 - 46</t>
+  </si>
+  <si>
+    <t>46 - 47</t>
+  </si>
+  <si>
+    <t>47 - 48</t>
+  </si>
+  <si>
+    <t>48 - 49</t>
+  </si>
+  <si>
+    <t>49 - 50</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,23 +95,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-teema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +215,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +423,285 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>